--- a/Jogos_do_Dia/2023-09-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>League</t>
   </si>
@@ -124,13 +124,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>15:45:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>UCD</t>
   </si>
   <si>
+    <t>Ceará</t>
+  </si>
+  <si>
     <t>Derry City</t>
+  </si>
+  <si>
+    <t>Londrina</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,25 +625,25 @@
         <v>45175</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>9.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -646,10 +658,10 @@
         <v>4.5</v>
       </c>
       <c r="N2">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O2">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="P2">
         <v>1.29</v>
@@ -710,6 +722,113 @@
       </c>
       <c r="AI2">
         <v>3.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>1.56</v>
+      </c>
+      <c r="H3">
+        <v>3.55</v>
+      </c>
+      <c r="I3">
+        <v>5.5</v>
+      </c>
+      <c r="J3">
+        <v>1.08</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>1.38</v>
+      </c>
+      <c r="M3">
+        <v>2.9</v>
+      </c>
+      <c r="N3">
+        <v>2.35</v>
+      </c>
+      <c r="O3">
+        <v>1.59</v>
+      </c>
+      <c r="P3">
+        <v>1.47</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3">
+        <v>2.35</v>
+      </c>
+      <c r="S3">
+        <v>1.52</v>
+      </c>
+      <c r="T3">
+        <v>1.12</v>
+      </c>
+      <c r="U3">
+        <v>1.26</v>
+      </c>
+      <c r="V3">
+        <v>2.3</v>
+      </c>
+      <c r="W3">
+        <v>1.62</v>
+      </c>
+      <c r="X3">
+        <v>0.38</v>
+      </c>
+      <c r="Y3">
+        <v>1.59</v>
+      </c>
+      <c r="Z3">
+        <v>1.19</v>
+      </c>
+      <c r="AA3">
+        <v>2.78</v>
+      </c>
+      <c r="AB3">
+        <v>1.43</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>3.6</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1.25</v>
+      </c>
+      <c r="AG3">
+        <v>1.46</v>
+      </c>
+      <c r="AH3">
+        <v>1.83</v>
+      </c>
+      <c r="AI3">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -637,13 +637,13 @@
         <v>41</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>10.12</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>6.76</v>
       </c>
       <c r="I2">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -658,10 +658,10 @@
         <v>4.5</v>
       </c>
       <c r="N2">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="O2">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="P2">
         <v>1.29</v>
@@ -744,13 +744,13 @@
         <v>42</v>
       </c>
       <c r="G3">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H3">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I3">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -765,10 +765,10 @@
         <v>2.9</v>
       </c>
       <c r="N3">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P3">
         <v>1.47</v>
